--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Ntf3</t>
   </si>
   <si>
     <t>Ngfr</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H2">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I2">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J2">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N2">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O2">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P2">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q2">
-        <v>48.17780336813176</v>
+        <v>2.4126179444925</v>
       </c>
       <c r="R2">
-        <v>192.711213472527</v>
+        <v>9.650471777969999</v>
       </c>
       <c r="S2">
-        <v>0.3665801139218672</v>
+        <v>0.0116790162262707</v>
       </c>
       <c r="T2">
-        <v>0.3072402676420099</v>
+        <v>0.01147911846396992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,14 +584,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -602,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H3">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I3">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J3">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N3">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O3">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P3">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q3">
-        <v>0.9498255134535002</v>
+        <v>0.4132218085848333</v>
       </c>
       <c r="R3">
-        <v>5.698953080721001</v>
+        <v>2.479330851509</v>
       </c>
       <c r="S3">
-        <v>0.007227127859424075</v>
+        <v>0.002000326748181574</v>
       </c>
       <c r="T3">
-        <v>0.009085863963228028</v>
+        <v>0.002949133805128225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H4">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I4">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J4">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N4">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O4">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P4">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q4">
-        <v>1.013205144365833</v>
+        <v>164.9093796641852</v>
       </c>
       <c r="R4">
-        <v>6.079230866195002</v>
+        <v>659.6375186567409</v>
       </c>
       <c r="S4">
-        <v>0.007709377167111222</v>
+        <v>0.798294369549419</v>
       </c>
       <c r="T4">
-        <v>0.009692142375791701</v>
+        <v>0.7846307822199232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2844430000000001</v>
+        <v>0.284443</v>
       </c>
       <c r="H5">
-        <v>0.8533290000000001</v>
+        <v>0.853329</v>
       </c>
       <c r="I5">
-        <v>0.02759980931453661</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J5">
-        <v>0.03537739281082677</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N5">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O5">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P5">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q5">
-        <v>3.485295581143501</v>
+        <v>0.096046445595</v>
       </c>
       <c r="R5">
-        <v>20.91177348686101</v>
+        <v>0.57627867357</v>
       </c>
       <c r="S5">
-        <v>0.02651926741915525</v>
+        <v>0.0004649422421566169</v>
       </c>
       <c r="T5">
-        <v>0.03333972511095314</v>
+        <v>0.000685476452795865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2844430000000001</v>
+        <v>0.284443</v>
       </c>
       <c r="H6">
-        <v>0.8533290000000001</v>
+        <v>0.853329</v>
       </c>
       <c r="I6">
-        <v>0.02759980931453661</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J6">
-        <v>0.03537739281082677</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N6">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O6">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P6">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q6">
-        <v>0.06871261106700002</v>
+        <v>0.01645038164766667</v>
       </c>
       <c r="R6">
-        <v>0.6184134996030002</v>
+        <v>0.148053434829</v>
       </c>
       <c r="S6">
-        <v>0.0005228274232500896</v>
+        <v>7.963311167026017E-05</v>
       </c>
       <c r="T6">
-        <v>0.0009859391454589352</v>
+        <v>0.0001761077547814185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,46 +847,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2844430000000001</v>
+        <v>0.284443</v>
       </c>
       <c r="H7">
-        <v>0.8533290000000001</v>
+        <v>0.853329</v>
       </c>
       <c r="I7">
-        <v>0.02759980931453661</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J7">
-        <v>0.03537739281082677</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N7">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O7">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P7">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q7">
-        <v>0.07329764259833335</v>
+        <v>6.5650509639035</v>
       </c>
       <c r="R7">
-        <v>0.6596787833850002</v>
+        <v>39.390305783421</v>
       </c>
       <c r="S7">
-        <v>0.0005577144721312621</v>
+        <v>0.03178014028651002</v>
       </c>
       <c r="T7">
-        <v>0.001051728554414697</v>
+        <v>0.04685428824858998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.8652865</v>
+        <v>1.370104</v>
       </c>
       <c r="H8">
-        <v>5.730573</v>
+        <v>2.740208</v>
       </c>
       <c r="I8">
-        <v>0.2780218217059867</v>
+        <v>0.1557015718357919</v>
       </c>
       <c r="J8">
-        <v>0.2375786268275401</v>
+        <v>0.1532250930548114</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.2530545</v>
+        <v>0.337665</v>
       </c>
       <c r="N8">
-        <v>24.506109</v>
+        <v>0.67533</v>
       </c>
       <c r="O8">
-        <v>0.9608496608412348</v>
+        <v>0.01438349055657064</v>
       </c>
       <c r="P8">
-        <v>0.9424019822271915</v>
+        <v>0.0143657952272707</v>
       </c>
       <c r="Q8">
-        <v>35.10851164261425</v>
+        <v>0.46263616716</v>
       </c>
       <c r="R8">
-        <v>140.434046570457</v>
+        <v>1.85054466864</v>
       </c>
       <c r="S8">
-        <v>0.2671371730926596</v>
+        <v>0.002239532088143317</v>
       </c>
       <c r="T8">
-        <v>0.223894568857088</v>
+        <v>0.002201200310504918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,14 +956,14 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>2</v>
       </c>
@@ -974,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.8652865</v>
+        <v>1.370104</v>
       </c>
       <c r="H9">
-        <v>5.730573</v>
+        <v>2.740208</v>
       </c>
       <c r="I9">
-        <v>0.2780218217059867</v>
+        <v>0.1557015718357919</v>
       </c>
       <c r="J9">
-        <v>0.2375786268275401</v>
+        <v>0.1532250930548114</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.241569</v>
+        <v>0.05783366666666667</v>
       </c>
       <c r="N9">
-        <v>0.7247070000000001</v>
+        <v>0.173501</v>
       </c>
       <c r="O9">
-        <v>0.0189431534577567</v>
+        <v>0.002463536340313192</v>
       </c>
       <c r="P9">
-        <v>0.0278691861418686</v>
+        <v>0.003690758351808291</v>
       </c>
       <c r="Q9">
-        <v>0.6921643945185001</v>
+        <v>0.07923813803466666</v>
       </c>
       <c r="R9">
-        <v>4.152986367111001</v>
+        <v>0.475428828208</v>
       </c>
       <c r="S9">
-        <v>0.005266610033181579</v>
+        <v>0.0003835764804613583</v>
       </c>
       <c r="T9">
-        <v>0.006621122974386251</v>
+        <v>0.0005655167918986477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,232 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.8652865</v>
+        <v>1.370104</v>
       </c>
       <c r="H10">
-        <v>5.730573</v>
+        <v>2.740208</v>
       </c>
       <c r="I10">
-        <v>0.2780218217059867</v>
+        <v>0.1557015718357919</v>
       </c>
       <c r="J10">
-        <v>0.2375786268275401</v>
+        <v>0.1532250930548114</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2576883333333334</v>
+        <v>23.0803745</v>
       </c>
       <c r="N10">
-        <v>0.7730650000000001</v>
+        <v>46.160749</v>
       </c>
       <c r="O10">
-        <v>0.02020718570100838</v>
+        <v>0.9831529731031161</v>
       </c>
       <c r="P10">
-        <v>0.02972883163094002</v>
+        <v>0.981943446420921</v>
       </c>
       <c r="Q10">
-        <v>0.7383509027075</v>
+        <v>31.622513423948</v>
       </c>
       <c r="R10">
-        <v>4.430105416245</v>
+        <v>126.490053695792</v>
       </c>
       <c r="S10">
-        <v>0.005618038580145516</v>
+        <v>0.1530784632671872</v>
       </c>
       <c r="T10">
-        <v>0.007062934996065868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.224346</v>
-      </c>
-      <c r="H11">
-        <v>9.673038</v>
-      </c>
-      <c r="I11">
-        <v>0.3128617500310742</v>
-      </c>
-      <c r="J11">
-        <v>0.4010257063806036</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>12.2530545</v>
-      </c>
-      <c r="N11">
-        <v>24.506109</v>
-      </c>
-      <c r="O11">
-        <v>0.9608496608412348</v>
-      </c>
-      <c r="P11">
-        <v>0.9424019822271915</v>
-      </c>
-      <c r="Q11">
-        <v>39.508087264857</v>
-      </c>
-      <c r="R11">
-        <v>237.048523589142</v>
-      </c>
-      <c r="S11">
-        <v>0.3006131064075528</v>
-      </c>
-      <c r="T11">
-        <v>0.3779274206171405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3.224346</v>
-      </c>
-      <c r="H12">
-        <v>9.673038</v>
-      </c>
-      <c r="I12">
-        <v>0.3128617500310742</v>
-      </c>
-      <c r="J12">
-        <v>0.4010257063806036</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.241569</v>
-      </c>
-      <c r="N12">
-        <v>0.7247070000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.0189431534577567</v>
-      </c>
-      <c r="P12">
-        <v>0.0278691861418686</v>
-      </c>
-      <c r="Q12">
-        <v>0.7789020388740001</v>
-      </c>
-      <c r="R12">
-        <v>7.010118349866001</v>
-      </c>
-      <c r="S12">
-        <v>0.005926588141900955</v>
-      </c>
-      <c r="T12">
-        <v>0.01117626005879538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.224346</v>
-      </c>
-      <c r="H13">
-        <v>9.673038</v>
-      </c>
-      <c r="I13">
-        <v>0.3128617500310742</v>
-      </c>
-      <c r="J13">
-        <v>0.4010257063806036</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2576883333333334</v>
-      </c>
-      <c r="N13">
-        <v>0.7730650000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.02020718570100838</v>
-      </c>
-      <c r="P13">
-        <v>0.02972883163094002</v>
-      </c>
-      <c r="Q13">
-        <v>0.8308763468300001</v>
-      </c>
-      <c r="R13">
-        <v>7.477887121470001</v>
-      </c>
-      <c r="S13">
-        <v>0.006322055481620382</v>
-      </c>
-      <c r="T13">
-        <v>0.01192202570466775</v>
+        <v>0.1504583759524078</v>
       </c>
     </row>
   </sheetData>
